--- a/_site/Data/Historical2.xlsx
+++ b/_site/Data/Historical2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/_site/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8220C-2871-C84E-AD8B-D82EA1DC7D5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2019B0-5ECA-934F-9432-23D009C9433F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{663F1AFD-6E9B-E447-A23D-DE2FC8DC025F}"/>
+    <workbookView xWindow="38400" yWindow="2680" windowWidth="23540" windowHeight="16120" xr2:uid="{663F1AFD-6E9B-E447-A23D-DE2FC8DC025F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="691">
   <si>
     <t>Source:</t>
   </si>
@@ -2704,6 +2704,12 @@
 https://www.cipd.co.uk/knowledge/culture/well-being/health-well-being-work</t>
   </si>
   <si>
+    <t>To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, currently? 
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these.                                               • Weekly [Free Text]
+• Or Monthly [Free Text]
+• Or Yearly [Free Text]</t>
+  </si>
+  <si>
     <t>How many people were being supported by your total household income in 2019?</t>
   </si>
   <si>
@@ -2995,6 +3001,9 @@
   </si>
   <si>
     <t xml:space="preserve">How does a telehealth visit compare to an office visit in terms of:                             •Medical care for yourself                                                         •Medical care for your child                        •Mental health                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please rate how helpful each of the services you have accessed online/digitally are currently:                     •Parenting support (such as play groups, support groups, coaching or informative sessions related to parenting etc.)                                   •Fitness classes                                             •Educational Courses                                    •Library or other enrichment programs      •Other</t>
   </si>
   <si>
     <t>•1 - Telehealth visit better
@@ -3555,33 +3564,6 @@
   <si>
     <t>•Cognitive Development                       •Physical development, including vision and hearing                                •Communication development              •Social or emotional development        •Adaptive development                        •Other area of development               •None of these apply                           
 •I do not wish to respond</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Could not find in codebook- "How many children do you have?" is currently in the survey</t>
-  </si>
-  <si>
-    <t>Historical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could not find in codebook </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Please rate how helpful each of the services you have accessed online/digitally are currently:                                                •Parenting support (such as play groups, support groups, coaching or informative sessions related to parenting etc.)                                   •Fitness classes                                             •Educational Courses                                    •Library or other enrichment programs      •Other</t>
-  </si>
-  <si>
-    <t>•Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten.                                        •At least five hours of paid or unpaid care by a relative, friend or neighbor in my home                                          •At least five hours of paid or unpaid care by a relative, friend or neighbor in &lt;strong&gt;their home                          •At least five hours of paid care by a professional child care provider in my home                                                   •At least five hours of paid care by a professional child care provider in their home                                            •Care provided entirely by the child’s parents and/or legal guardians                 •None of the above apply</t>
-  </si>
-  <si>
-    <t>Current (?)</t>
-  </si>
-  <si>
-    <t>To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, currently? 
-You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these.                                                                      • Weekly [Free Text]
-• Or Monthly [Free Text]
-• Or Yearly [Free Text]</t>
   </si>
 </sst>
 </file>
@@ -3759,7 +3741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3887,15 +3869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4214,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AAEF64-5CC6-0C4E-8EBE-181A98472300}">
   <dimension ref="A1:G408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4228,7 +4201,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4240,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -4260,9 +4233,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -4278,9 +4249,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4296,11 +4265,9 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4314,9 +4281,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>690</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -4332,9 +4297,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -4350,9 +4313,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -4368,9 +4329,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4386,9 +4345,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -4404,9 +4361,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -4422,9 +4377,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -4434,15 +4387,13 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -4458,9 +4409,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -4476,9 +4425,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -4494,9 +4441,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>692</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -4512,9 +4457,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -4528,9 +4471,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -4546,9 +4487,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -4562,9 +4501,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -4578,9 +4515,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -4590,13 +4525,11 @@
         <v>472</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -4610,9 +4543,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -4625,12 +4556,10 @@
         <v>446</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -4644,9 +4573,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -4662,9 +4589,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -4678,9 +4603,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -4694,9 +4617,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -4710,9 +4631,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -4726,9 +4645,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -4744,9 +4661,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -4762,9 +4677,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -4780,201 +4693,175 @@
         <v>43</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>693</v>
+        <v>571</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -4990,9 +4877,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -5008,9 +4893,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -5020,79 +4903,69 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -5102,79 +4975,69 @@
         <v>354</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -5190,127 +5053,111 @@
         <v>43</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>694</v>
+        <v>584</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" s="29" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>609</v>
-      </c>
       <c r="C63" s="25" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="25" t="s">
-        <v>692</v>
-      </c>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="30"/>
-      <c r="F64" s="30" t="s">
-        <v>689</v>
-      </c>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
@@ -5338,9 +5185,7 @@
         <v>61</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
@@ -5354,9 +5199,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="356" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -5372,9 +5215,7 @@
         <v>61</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -5390,9 +5231,7 @@
         <v>61</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
@@ -5402,13 +5241,11 @@
         <v>467</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="372" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
@@ -5424,9 +5261,7 @@
         <v>61</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
@@ -5442,9 +5277,7 @@
         <v>38</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -5460,9 +5293,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="153" x14ac:dyDescent="0.2">
@@ -5479,9 +5310,7 @@
         <v>72</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
@@ -5497,9 +5326,7 @@
         <v>72</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
@@ -5515,9 +5342,7 @@
         <v>72</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
@@ -5533,9 +5358,7 @@
         <v>72</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
@@ -5551,9 +5374,7 @@
         <v>72</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
@@ -5569,9 +5390,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
@@ -5587,9 +5406,7 @@
         <v>72</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
@@ -5605,9 +5422,7 @@
         <v>72</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
@@ -5623,9 +5438,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
@@ -5641,9 +5454,7 @@
         <v>72</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
@@ -5659,9 +5470,7 @@
         <v>72</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
@@ -5677,9 +5486,7 @@
         <v>72</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
@@ -5695,9 +5502,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
@@ -5713,9 +5518,7 @@
         <v>72</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
@@ -5731,9 +5534,7 @@
         <v>72</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
@@ -5747,9 +5548,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
@@ -5763,9 +5562,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
@@ -5781,49 +5578,43 @@
         <v>72</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>496</v>
@@ -5835,13 +5626,11 @@
         <v>502</v>
       </c>
       <c r="E94" s="21"/>
-      <c r="F94" s="21" t="s">
-        <v>689</v>
-      </c>
+      <c r="F94" s="21"/>
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>498</v>
@@ -5853,16 +5642,14 @@
         <v>502</v>
       </c>
       <c r="E95" s="21"/>
-      <c r="F95" s="21" t="s">
-        <v>689</v>
-      </c>
+      <c r="F95" s="21"/>
     </row>
     <row r="96" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C96" s="42" t="s">
         <v>500</v>
@@ -5871,16 +5658,14 @@
         <v>502</v>
       </c>
       <c r="E96" s="44"/>
-      <c r="F96" s="44" t="s">
-        <v>689</v>
-      </c>
+      <c r="F96" s="44"/>
     </row>
     <row r="97" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B97" s="41" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C97" s="42" t="s">
         <v>500</v>
@@ -5889,45 +5674,39 @@
         <v>502</v>
       </c>
       <c r="E97" s="44"/>
-      <c r="F97" s="44" t="s">
-        <v>689</v>
-      </c>
+      <c r="F97" s="44"/>
     </row>
     <row r="98" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E98" s="21"/>
-      <c r="F98" s="46" t="s">
-        <v>689</v>
-      </c>
+      <c r="F98" s="21"/>
     </row>
     <row r="99" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>672</v>
-      </c>
       <c r="C99" s="13" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="388" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
@@ -5941,9 +5720,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
@@ -5956,12 +5733,10 @@
         <v>494</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
@@ -5974,66 +5749,58 @@
         <v>495</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" s="29" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C103" s="32" t="s">
         <v>497</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E103" s="33"/>
-      <c r="F103" s="47" t="s">
-        <v>689</v>
-      </c>
+      <c r="F103" s="33"/>
     </row>
     <row r="104" spans="1:6" s="29" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E104" s="40"/>
-      <c r="F104" s="40" t="s">
-        <v>689</v>
-      </c>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" s="29" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B105" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="B105" s="27" t="s">
-        <v>637</v>
-      </c>
       <c r="C105" s="32" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E105" s="40"/>
-      <c r="F105" s="40" t="s">
-        <v>689</v>
-      </c>
+      <c r="F105" s="40"/>
     </row>
     <row r="106" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
@@ -6049,9 +5816,7 @@
         <v>502</v>
       </c>
       <c r="E106" s="21"/>
-      <c r="F106" s="21" t="s">
-        <v>689</v>
-      </c>
+      <c r="F106" s="21"/>
     </row>
     <row r="107" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
@@ -6067,9 +5832,7 @@
         <v>502</v>
       </c>
       <c r="E107" s="21"/>
-      <c r="F107" s="21" t="s">
-        <v>689</v>
-      </c>
+      <c r="F107" s="21"/>
     </row>
     <row r="108" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
@@ -6085,9 +5848,7 @@
         <v>502</v>
       </c>
       <c r="E108" s="21"/>
-      <c r="F108" s="21" t="s">
-        <v>689</v>
-      </c>
+      <c r="F108" s="21"/>
     </row>
     <row r="109" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
@@ -6103,9 +5864,7 @@
         <v>502</v>
       </c>
       <c r="E109" s="21"/>
-      <c r="F109" s="21" t="s">
-        <v>689</v>
-      </c>
+      <c r="F109" s="21"/>
     </row>
     <row r="110" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
@@ -6121,9 +5880,7 @@
         <v>506</v>
       </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
@@ -6133,15 +5890,13 @@
         <v>505</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>506</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -6169,9 +5924,7 @@
         <v>72</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
@@ -6199,9 +5952,7 @@
         <v>87</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
@@ -6217,9 +5968,7 @@
         <v>87</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -6235,9 +5984,7 @@
         <v>90</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
@@ -6253,9 +6000,7 @@
         <v>90</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
@@ -6271,9 +6016,7 @@
         <v>94</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -6289,9 +6032,7 @@
         <v>94</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
@@ -6307,9 +6048,7 @@
         <v>99</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
@@ -6325,9 +6064,7 @@
         <v>99</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
@@ -6343,9 +6080,7 @@
         <v>102</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
@@ -6361,9 +6096,7 @@
         <v>102</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
@@ -6379,9 +6112,7 @@
         <v>72</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
@@ -6397,9 +6128,7 @@
         <v>38</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
@@ -6415,9 +6144,7 @@
         <v>38</v>
       </c>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
@@ -6433,9 +6160,7 @@
         <v>111</v>
       </c>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
@@ -6451,9 +6176,7 @@
         <v>111</v>
       </c>
       <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
@@ -6481,45 +6204,39 @@
         <v>18</v>
       </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>696</v>
+        <v>507</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
@@ -6529,40 +6246,36 @@
         <v>117</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" s="29" customFormat="1" ht="46" x14ac:dyDescent="0.2">
       <c r="A136" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C136" s="25" t="s">
         <v>78</v>
@@ -6571,27 +6284,23 @@
         <v>72</v>
       </c>
       <c r="E136" s="34"/>
-      <c r="F136" s="34" t="s">
-        <v>689</v>
-      </c>
+      <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" s="29" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A137" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D137" s="34" t="s">
         <v>72</v>
       </c>
       <c r="E137" s="34"/>
-      <c r="F137" s="34" t="s">
-        <v>689</v>
-      </c>
+      <c r="F137" s="34"/>
     </row>
     <row r="138" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
@@ -6601,13 +6310,11 @@
         <v>331</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -6621,9 +6328,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
@@ -6639,9 +6344,7 @@
         <v>72</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
@@ -6657,9 +6360,7 @@
         <v>72</v>
       </c>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
@@ -6675,9 +6376,7 @@
         <v>18</v>
       </c>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
@@ -6693,9 +6392,7 @@
         <v>18</v>
       </c>
       <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
@@ -6711,9 +6408,7 @@
         <v>18</v>
       </c>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
@@ -6729,9 +6424,7 @@
         <v>18</v>
       </c>
       <c r="E145" s="1"/>
-      <c r="F145" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
@@ -6741,51 +6434,45 @@
         <v>130</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" s="29" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A148" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E148" s="35"/>
-      <c r="F148" s="48" t="s">
-        <v>689</v>
-      </c>
+      <c r="F148" s="35"/>
     </row>
     <row r="149" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
@@ -6801,58 +6488,52 @@
         <v>72</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
@@ -6862,13 +6543,13 @@
         <v>114</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
@@ -6878,13 +6559,13 @@
         <v>114</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -6975,7 +6656,7 @@
         <v>140</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>72</v>
@@ -6988,10 +6669,10 @@
         <v>114</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -7018,13 +6699,13 @@
         <v>114</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7034,13 +6715,13 @@
         <v>114</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24"/>
@@ -7050,13 +6731,13 @@
         <v>114</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -7066,13 +6747,13 @@
         <v>114</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -7082,125 +6763,125 @@
         <v>114</v>
       </c>
       <c r="B167" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
     <row r="168" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="37" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E168" s="37"/>
       <c r="F168" s="37"/>
     </row>
     <row r="169" spans="1:6" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="38" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D169" s="37" t="s">
         <v>645</v>
-      </c>
-      <c r="D169" s="37" t="s">
-        <v>643</v>
       </c>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
     </row>
     <row r="170" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="38" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D170" s="37" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E170" s="37"/>
       <c r="F170" s="37"/>
     </row>
     <row r="171" spans="1:6" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="38" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E171" s="37"/>
       <c r="F171" s="37"/>
     </row>
     <row r="172" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E172" s="33"/>
       <c r="F172" s="33"/>
     </row>
     <row r="173" spans="1:6" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D173" s="33" t="s">
         <v>654</v>
-      </c>
-      <c r="D173" s="33" t="s">
-        <v>652</v>
       </c>
       <c r="E173" s="33"/>
       <c r="F173" s="33"/>
     </row>
     <row r="174" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="33"/>
@@ -7412,10 +7093,10 @@
         <v>162</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D188" s="30" t="s">
         <v>72</v>
@@ -7428,7 +7109,7 @@
         <v>162</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C189" s="30" t="s">
         <v>159</v>
@@ -7444,7 +7125,7 @@
         <v>162</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C190" s="30" t="s">
         <v>209</v>
@@ -7460,10 +7141,10 @@
         <v>162</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D191" s="36" t="s">
         <v>72</v>
@@ -7476,7 +7157,7 @@
         <v>162</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C192" s="30" t="s">
         <v>159</v>
@@ -7492,7 +7173,7 @@
         <v>162</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C193" s="30" t="s">
         <v>209</v>
@@ -7508,10 +7189,10 @@
         <v>162</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D194" s="36" t="s">
         <v>72</v>
@@ -7524,7 +7205,7 @@
         <v>162</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C195" s="30" t="s">
         <v>159</v>
@@ -7540,7 +7221,7 @@
         <v>162</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C196" s="30" t="s">
         <v>209</v>
@@ -7556,10 +7237,10 @@
         <v>162</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D197" s="36" t="s">
         <v>72</v>
@@ -7572,7 +7253,7 @@
         <v>162</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C198" s="30" t="s">
         <v>159</v>
@@ -7664,7 +7345,7 @@
         <v>165</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C204" s="25" t="s">
         <v>165</v>
@@ -7680,7 +7361,7 @@
         <v>165</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C205" s="25" t="s">
         <v>165</v>
@@ -7855,7 +7536,7 @@
         <v>179</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>43</v>
@@ -7868,10 +7549,10 @@
         <v>42</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -7882,10 +7563,10 @@
         <v>42</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -7896,10 +7577,10 @@
         <v>42</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -7910,10 +7591,10 @@
         <v>42</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -7924,13 +7605,13 @@
         <v>42</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -8231,7 +7912,7 @@
         <v>208</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>210</v>
@@ -8343,7 +8024,7 @@
         <v>219</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -8351,10 +8032,10 @@
         <v>114</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -8362,10 +8043,10 @@
         <v>114</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -8406,10 +8087,10 @@
         <v>222</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8782,7 +8463,7 @@
     <row r="281" spans="1:6" ht="46" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="45"/>
@@ -8791,29 +8472,29 @@
     </row>
     <row r="282" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
     </row>
     <row r="283" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A283" s="43" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>238</v>
@@ -8823,10 +8504,10 @@
     </row>
     <row r="284" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>242</v>
@@ -8839,7 +8520,7 @@
     </row>
     <row r="285" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>243</v>
@@ -8855,13 +8536,13 @@
     </row>
     <row r="286" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A286" s="43" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>465</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>238</v>
@@ -8871,29 +8552,29 @@
     </row>
     <row r="287" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
     </row>
     <row r="288" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A288" s="43" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>238</v>
@@ -8903,13 +8584,13 @@
     </row>
     <row r="289" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>238</v>
@@ -8919,13 +8600,13 @@
     </row>
     <row r="290" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A290" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>238</v>
@@ -8935,13 +8616,13 @@
     </row>
     <row r="291" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A291" s="43" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>238</v>
@@ -9258,10 +8939,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
@@ -9656,10 +9337,10 @@
         <v>305</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>72</v>
@@ -9672,10 +9353,10 @@
         <v>305</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C337" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>72</v>
@@ -9881,7 +9562,7 @@
         <v>288</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>165</v>
@@ -10101,7 +9782,7 @@
         <v>42</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>317</v>
@@ -10115,10 +9796,10 @@
         <v>42</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -10129,7 +9810,7 @@
         <v>42</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>316</v>
@@ -10143,7 +9824,7 @@
         <v>42</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>317</v>
@@ -10157,10 +9838,10 @@
         <v>42</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -10315,10 +9996,10 @@
         <v>114</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -10329,10 +10010,10 @@
         <v>114</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -10343,7 +10024,7 @@
         <v>114</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>78</v>
